--- a/sample_output/1401CE37.xlsx
+++ b/sample_output/1401CE37.xlsx
@@ -52,7 +52,7 @@
     <t>4.0</t>
   </si>
   <si>
-    <t>-2.0</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>Not Attempt</t>
@@ -73,19 +73,19 @@
     <t>19.0</t>
   </si>
   <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t>Roger Patel</t>
   </si>
   <si>
     <t>1401CE37</t>
   </si>
   <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>68.0/112.0</t>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>190.0/280.0</t>
   </si>
   <si>
     <t>Student Ans</t>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -626,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>12</v>
@@ -685,10 +685,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>4</v>
